--- a/data/output/FV2310_FV2304/INVOIC/31006.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="317">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="317">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1097,6 +1097,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U174" totalsRowShown="0">
+  <autoFilter ref="A1:U174"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,7 +1416,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9387,5 +9420,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31006.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31006.xlsx
@@ -1567,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1590,6 +1590,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1598,6 +1601,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2038,7 +2044,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2374,7 +2380,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2608,7 +2614,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2984,7 +2990,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3168,7 +3174,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3354,7 +3360,7 @@
         <v>298</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3542,7 +3548,7 @@
         <v>299</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3728,7 +3734,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -3918,7 +3924,7 @@
         <v>300</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -4060,7 +4066,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4210,7 +4216,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4360,7 +4366,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5030,7 +5036,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5234,7 +5240,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5380,7 +5386,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5742,7 +5748,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6412,7 +6418,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6600,22 +6606,22 @@
       <c r="B95" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M95" s="5"/>
@@ -6633,31 +6639,31 @@
       <c r="A96" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M96" s="5"/>
@@ -6675,29 +6681,29 @@
       <c r="A97" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M97" s="5"/>
@@ -6715,31 +6721,31 @@
       <c r="A98" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L98" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M98" s="5"/>
@@ -6757,29 +6763,29 @@
       <c r="A99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M99" s="5"/>
@@ -6797,29 +6803,29 @@
       <c r="A100" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M100" s="5"/>
@@ -6837,29 +6843,29 @@
       <c r="A101" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="J101" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M101" s="5"/>
@@ -6887,27 +6893,27 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11" t="s">
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V102" s="11"/>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -6923,33 +6929,33 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11" t="s">
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="U103" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V103" s="11"/>
+      <c r="U103" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6965,31 +6971,31 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11" t="s">
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V104" s="11"/>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7005,31 +7011,31 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11" t="s">
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="U105" s="11" t="s">
+      <c r="U105" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="V105" s="11" t="s">
+      <c r="V105" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7047,31 +7053,31 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U106" s="11" t="s">
+      <c r="U106" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="V106" s="11"/>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7087,31 +7093,31 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U107" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V107" s="11"/>
+      <c r="U107" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7127,31 +7133,31 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U108" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V108" s="11"/>
+      <c r="U108" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="2" t="s">
@@ -7176,7 +7182,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7326,7 +7332,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7530,7 +7536,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7626,7 +7632,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7830,7 +7836,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8034,7 +8040,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8238,7 +8244,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8438,7 +8444,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8638,7 +8644,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8788,7 +8794,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8938,7 +8944,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9302,7 +9308,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N151" s="2"/>
@@ -9392,7 +9398,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9542,7 +9548,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9692,7 +9698,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10058,7 +10064,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10208,7 +10214,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10356,7 +10362,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N172" s="2"/>
